--- a/config/excel/quest.xlsx
+++ b/config/excel/quest.xlsx
@@ -204,7 +204,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,7 +214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -222,6 +222,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -371,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,19 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3B3838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFABAB"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,133 +724,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -865,20 +867,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1231,7 +1233,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1283,31 +1285,31 @@
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:10">
       <c r="A2" s="4"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1315,991 +1317,991 @@
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:10">
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>10001</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>10002</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>6</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="H4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:10">
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>10002</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>10003</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="H5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:10">
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>10003</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>10004</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>5</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="H6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:10">
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>10004</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>10005</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>6</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="H7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:10">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>10005</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>10006</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>9</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>5000</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="H8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:10">
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>10006</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>10007</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="H9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:10">
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>10007</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>10008</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>1</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
+      <c r="H10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:10">
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>20001</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>1</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="H11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7">
         <v>20</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:10">
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>20002</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>2</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>3</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="H12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="7">
         <v>20</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:10">
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>20003</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>3</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>1</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="H13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="7">
         <v>20</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:10">
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>20004</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>14</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="H14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="7">
         <v>20</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:10">
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>20005</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>13</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>3</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="8">
+      <c r="H15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="7">
         <v>20</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:10">
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>20006</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>5</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>1</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="H16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="7">
         <v>20</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="2:10">
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>20007</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>6</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="8">
+      <c r="H17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="7">
         <v>20</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="2:10">
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>20008</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>7</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>7</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="8">
+      <c r="H18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="7">
         <v>20</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="2:10">
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>20009</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>8</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>3</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="8">
+      <c r="H19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="7">
         <v>20</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="2:10">
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>20010</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>4</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>1</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="8">
+      <c r="H20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="7">
         <v>20</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="2:10">
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>20011</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>2</v>
       </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>10</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>100</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="8">
+      <c r="H21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="7">
         <v>20</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="2:10">
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>20012</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>2</v>
       </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>11</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>1</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="8">
+      <c r="H22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="7">
         <v>20</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="2:10">
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>20013</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>2</v>
       </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>16</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>2</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="8">
+      <c r="H23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="7">
         <v>20</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="2:10">
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>50001</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>5</v>
       </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>9</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>250000</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="8">
+      <c r="H24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="7">
         <v>25</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="2:10">
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>50002</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>1</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>5</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="8">
+      <c r="H25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="7">
         <v>25</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="2:10">
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>50003</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>5</v>
       </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>2</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>15</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="H26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="7">
         <v>25</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="2:10">
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>50004</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>5</v>
       </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>16</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>10</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="H27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="7">
         <v>25</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1" spans="2:10">
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>50005</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>5</v>
       </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>14</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>10</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="8">
+      <c r="H28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="7">
         <v>25</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1" spans="2:10">
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>50006</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>5</v>
       </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>13</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <v>15</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="8">
+      <c r="H29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="7">
         <v>25</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1" spans="2:10">
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>50007</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>5</v>
       </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>5</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>5</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="8">
+      <c r="H30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="7">
         <v>25</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="31" ht="18.75" customHeight="1" spans="2:10">
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>50008</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>5</v>
       </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <v>6</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <v>5</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="8">
+      <c r="H31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="7">
         <v>25</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1" spans="2:10">
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>50009</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>5</v>
       </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <v>7</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>35</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="8">
+      <c r="H32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="7">
         <v>25</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1" spans="1:10">
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>50010</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>5</v>
       </c>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <v>8</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <v>15</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="8">
+      <c r="H33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="7">
         <v>25</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1" spans="1:10">
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>50011</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>5</v>
       </c>
-      <c r="D34" s="8">
-        <v>0</v>
-      </c>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <v>4</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <v>3</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="8">
+      <c r="H34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="7">
         <v>25</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1" spans="1:10">
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>50012</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>5</v>
       </c>
-      <c r="D35" s="8">
-        <v>0</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <v>10</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <v>500</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="8">
+      <c r="H35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="7">
         <v>25</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="36" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>50013</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>5</v>
       </c>
-      <c r="D36" s="8">
-        <v>0</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
         <v>11</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="7">
         <v>5</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="8">
+      <c r="H36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="7">
         <v>25</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="7">
         <v>0</v>
       </c>
     </row>
